--- a/example/template_inra_dev_test/capillaryelectrophoresisanalysis.xlsx
+++ b/example/template_inra_dev_test/capillaryelectrophoresisanalysis.xlsx
@@ -14,28 +14,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
-    <t>DATEEXP</t>
+    <t>dateexp</t>
   </si>
   <si>
-    <t>OPERATOR</t>
+    <t>operator</t>
   </si>
   <si>
-    <t>DEVICE</t>
+    <t>device</t>
   </si>
   <si>
-    <t>PRODCRIT</t>
+    <t>prodcrit</t>
   </si>
   <si>
-    <t>MOL</t>
+    <t>mol</t>
   </si>
   <si>
-    <t>SAMPLEID</t>
+    <t>sampleid</t>
   </si>
   <si>
-    <t>PRIMARYKEY</t>
+    <t>primarykey</t>
   </si>
   <si>
-    <t>ARRAYTYPE</t>
+    <t>arraytype</t>
   </si>
   <si>
     <t>#date</t>
